--- a/tests/test1/d20/N, 1.0.xlsx
+++ b/tests/test1/d20/N, 1.0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003263999999916223</v>
+        <v>0.0003149000000064461</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003175000000084083</v>
+        <v>0.000317199999997797</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.000588399999998046</v>
+        <v>0.0003338000000070451</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003246999999930722</v>
+        <v>0.000309699999988311</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003202000000044336</v>
+        <v>0.0003458999999992329</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003274999999973716</v>
+        <v>0.0003365000000030705</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003093999999919106</v>
+        <v>0.0002999999999957481</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003067999999899484</v>
+        <v>0.0003394999999954962</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002886000000046351</v>
+        <v>0.0005053000000003749</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003242999999883978</v>
+        <v>0.0003280999999901724</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.000321299999995972</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.0003437000000019452</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.000323699999995597</v>
+        <v>0.0004942999999997255</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002914999999887868</v>
+        <v>0.0006276000000013937</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002911999999923864</v>
+        <v>0.0004876999999936515</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003432000000032076</v>
+        <v>0.0004965999999910764</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0004557999999974527</v>
+        <v>0.0005082000000129483</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005230999999952246</v>
+        <v>0.0003099000000048591</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0005006999999892514</v>
+        <v>0.0003219999999970469</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003324000000048954</v>
+        <v>0.0003962999999913563</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003412000000082571</v>
+        <v>0.000445500000012089</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003187000000082207</v>
+        <v>0.000506999999998925</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003208999999912976</v>
+        <v>0.0002994000000029473</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003211000000078457</v>
+        <v>0.0003397000000120443</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003262000000034959</v>
+        <v>0.00028930000000571</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.000331300000013357</v>
+        <v>0.0002890999999891619</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003185000000058835</v>
+        <v>0.0002905000000055225</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003382999999956837</v>
+        <v>0.0003135999999983596</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003454000000004953</v>
+        <v>0.000296700000006922</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003102000000012595</v>
+        <v>0.000300000000009959</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0003399000000001706</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.0002871000000084223</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.000320600000009108</v>
+        <v>0.0002898000000044476</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003060000000090213</v>
+        <v>0.0003204000000067708</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002987000000018725</v>
+        <v>0.000301600000000235</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002928000000110842</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003291000000018585</v>
+        <v>0.0003164999999967222</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002853999999956613</v>
+        <v>0.0002963999999963107</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0002846000000005233</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0002970000000033224</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003034999999869115</v>
+        <v>0.0003195000000033588</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0005682999999976346</v>
+        <v>0.0002945000000096343</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.0005270000000052733</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.000419100000002004</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0002879000000035603</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003268999999903599</v>
+        <v>0.0003626000000025442</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.000292600000008747</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003006000000027598</v>
+        <v>0.0002930999999932737</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0004848000000094999</v>
+        <v>0.0002788000000037982</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003096000000084587</v>
+        <v>0.0003167999999931226</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003180999999869982</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003011999999955606</v>
+        <v>0.0002832999999924368</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003038999999915859</v>
+        <v>0.0003712000000035687</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003094999999859738</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003051000000056092</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003085999999967726</v>
+        <v>0.001331199999995647</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002889999999950987</v>
+        <v>0.0003080000000039718</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002911000000125341</v>
+        <v>0.0002836000000030481</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003695000000050186</v>
+        <v>0.000353400000008719</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003871000000117419</v>
+        <v>0.0003231999999968593</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003035000000011223</v>
+        <v>0.0002841000000017857</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002988999999899988</v>
+        <v>0.0002762000000018361</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0003966000000019676</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0003066000000018221</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003660999999937076</v>
+        <v>0.0002844999999922493</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0004141000000004169</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.000294199999999023</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003008999999991602</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003100999999929854</v>
+        <v>0.0003892000000007556</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.000332100000008495</v>
+        <v>0.000304799999994998</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003038999999915859</v>
+        <v>0.0002875999999929491</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003286000000031208</v>
+        <v>0.0003176999999965346</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002969000000092592</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002884999999963611</v>
+        <v>0.0002856999999920617</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0002919000000076721</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003281999999984464</v>
+        <v>0.0003061999999971476</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002877999999952863</v>
+        <v>0.0002857999999861249</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003029999999881738</v>
+        <v>0.0002842999999899121</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.000407600000002617</v>
+        <v>0.0002817000000021608</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003104000000035967</v>
+        <v>0.0003066999999958853</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003026999999917734</v>
+        <v>0.0002984000000054721</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002999999999957481</v>
+        <v>0.0002835000000089849</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003105000000118707</v>
+        <v>0.0003047000000009348</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002992999999946733</v>
+        <v>0.0002944000000013602</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003058000000066841</v>
+        <v>0.0002953999999988355</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003188000000022839</v>
+        <v>0.001345700000001671</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002910000000042601</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003621999999978698</v>
+        <v>0.0002887999999927615</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003118000000057464</v>
+        <v>0.0003887999999960812</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002853000000015982</v>
+        <v>0.0003031999999905111</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.000298199999988924</v>
+        <v>0.0002917000000053349</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0003388000000086322</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002874000000048227</v>
+        <v>0.0002835999999888372</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002984000000054721</v>
+        <v>0.0002889000000010356</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003177999999905978</v>
+        <v>0.0002819999999985612</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.0003075000000052341</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 1.0.xlsx
+++ b/tests/test1/d20/N, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003149000000064461</v>
+        <v>0.0005186999999864383</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.000317199999997797</v>
+        <v>0.0003899000000018304</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003338000000070451</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000309699999988311</v>
+        <v>0.0003254999999882102</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003458999999992329</v>
+        <v>0.0003399000000001706</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003365000000030705</v>
+        <v>0.0003182000000094831</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0002999999999957481</v>
+        <v>0.0003408000000035827</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003394999999954962</v>
+        <v>0.0005525999999917985</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005053000000003749</v>
+        <v>0.0003159999999979846</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003280999999901724</v>
+        <v>0.0005194999999957872</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0005148000000048114</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003437000000019452</v>
+        <v>0.0003416999999927839</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0004942999999997255</v>
+        <v>0.0005096000000008871</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0006276000000013937</v>
+        <v>0.0004878999999959888</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004876999999936515</v>
+        <v>0.0004940000000033251</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0004965999999910764</v>
+        <v>0.0005191000000053236</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005082000000129483</v>
+        <v>0.0003332999999940967</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003099000000048591</v>
+        <v>0.0003683000000052061</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003219999999970469</v>
+        <v>0.0003540999999955829</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003962999999913563</v>
+        <v>0.0003319000000061578</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000445500000012089</v>
+        <v>0.0003273999999890975</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000506999999998925</v>
+        <v>0.0003234999999932597</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002994000000029473</v>
+        <v>0.0002945000000096343</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003397000000120443</v>
+        <v>0.0002963000000022475</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.00028930000000571</v>
+        <v>0.0003435999999936712</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002890999999891619</v>
+        <v>0.0002907000000078597</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0003176000000024715</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003135999999983596</v>
+        <v>0.0003255999999964843</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000296700000006922</v>
+        <v>0.0002977999999984604</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.000300000000009959</v>
+        <v>0.0003214999999983092</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003399000000001706</v>
+        <v>0.000331899999991947</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002871000000084223</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002898000000044476</v>
+        <v>0.0003070000000064965</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003204000000067708</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.000301600000000235</v>
+        <v>0.0003312999999991462</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0003155999999933101</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003164999999967222</v>
+        <v>0.0002970999999973856</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002963999999963107</v>
+        <v>0.0003217999999947097</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002846000000005233</v>
+        <v>0.0003157999999956473</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0003074999999910233</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0003736000000031936</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002812999999974863</v>
+        <v>0.0003091999999895734</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002945000000096343</v>
+        <v>0.0002911999999923864</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0005270000000052733</v>
+        <v>0.0003036999999892487</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.0003195000000033588</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002879000000035603</v>
+        <v>0.0002927000000028102</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003626000000025442</v>
+        <v>0.000294999999994161</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.000339400000001433</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002930999999932737</v>
+        <v>0.0003012000000097714</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002788000000037982</v>
+        <v>0.000298299999997198</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003167999999931226</v>
+        <v>0.0005801000000076328</v>
       </c>
     </row>
     <row r="53">
@@ -3208,7 +3208,7 @@
         <v>1.41209503780751</v>
       </c>
       <c r="N53" t="n">
-        <v>2.57918281931466</v>
+        <v>2.579182819314659</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002810000000010859</v>
+        <v>0.0003209999999995716</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002832999999924368</v>
+        <v>0.0002935999999920114</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003712000000035687</v>
+        <v>0.0002963999999963107</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0003198999999938223</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0002923000000123466</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.001331199999995647</v>
+        <v>0.0003020000000049095</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003080000000039718</v>
+        <v>0.0007397999999909644</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002836000000030481</v>
+        <v>0.0003085999999967726</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.000353400000008719</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003231999999968593</v>
+        <v>0.0007581000000129734</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002841000000017857</v>
+        <v>0.0003124999999926104</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002762000000018361</v>
+        <v>0.000300800000005097</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003966000000019676</v>
+        <v>0.0002905000000055225</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003066000000018221</v>
+        <v>0.0003315999999955466</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002844999999922493</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0002946999999977606</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0003364999999888596</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.000290899999995986</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0002894999999938364</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003892000000007556</v>
+        <v>0.000884200000001556</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.000304799999994998</v>
+        <v>0.0003310000000027458</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002875999999929491</v>
+        <v>0.0003026999999917734</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003176999999965346</v>
+        <v>0.0003116999999974723</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0003384000000039578</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002856999999920617</v>
+        <v>0.0002890000000093096</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002919000000076721</v>
+        <v>0.0003147999999981721</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0006291999999916698</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002857999999861249</v>
+        <v>0.0003106999999999971</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002842999999899121</v>
+        <v>0.0002966999999927111</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002817000000021608</v>
+        <v>0.0002929000000051474</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0003147999999981721</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002984000000054721</v>
+        <v>0.0002991000000065469</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002835000000089849</v>
+        <v>0.000343399999991334</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0003578000000032944</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.0003007000000110338</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.0002938000000085594</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.001345700000001671</v>
+        <v>0.0003303999999957341</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.0003170000000096707</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002865000000014106</v>
+        <v>0.0002960000000058471</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002887999999927615</v>
+        <v>0.0005516999999883865</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003887999999960812</v>
+        <v>0.0003159999999979846</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003031999999905111</v>
+        <v>0.0003035999999951855</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002917000000053349</v>
+        <v>0.0002987000000018725</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003388000000086322</v>
+        <v>0.0003311999999908721</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002835999999888372</v>
+        <v>0.0002947999999918238</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002819999999985612</v>
+        <v>0.0003552999999953954</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003075000000052341</v>
+        <v>0.0003005000000086966</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002810000000010859</v>
+        <v>0.0003031999999905111</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 1.0.xlsx
+++ b/tests/test1/d20/N, 1.0.xlsx
@@ -532,13 +532,13 @@
         <v>358.2359476540324</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39944153282924</v>
+        <v>10.39944153283066</v>
       </c>
       <c r="G2" t="n">
-        <v>86.32968611070905</v>
+        <v>86.32968611071004</v>
       </c>
       <c r="H2" t="n">
-        <v>5.37974957608189</v>
+        <v>5.379749576083139</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>41.67853210842559</v>
+        <v>41.6785321084264</v>
       </c>
       <c r="L2" t="n">
-        <v>10.96740142078409</v>
+        <v>10.96740142078611</v>
       </c>
       <c r="M2" t="n">
-        <v>3.193751558898388</v>
+        <v>3.193751558897372</v>
       </c>
       <c r="N2" t="n">
-        <v>3.122065520740271</v>
+        <v>3.12206552073962</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0005186999999864383</v>
+        <v>0.0002477999999825897</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>358.3756546363367</v>
       </c>
       <c r="F3" t="n">
-        <v>10.38506779252175</v>
+        <v>10.38506779252107</v>
       </c>
       <c r="G3" t="n">
-        <v>61.00492394976956</v>
+        <v>61.00492394976792</v>
       </c>
       <c r="H3" t="n">
-        <v>5.936714104459499</v>
+        <v>5.936714104458983</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>32.35692314114628</v>
+        <v>32.35692314114587</v>
       </c>
       <c r="L3" t="n">
-        <v>13.27974722657888</v>
+        <v>13.27974722657787</v>
       </c>
       <c r="M3" t="n">
-        <v>2.767063858043185</v>
+        <v>2.767063858043557</v>
       </c>
       <c r="N3" t="n">
-        <v>3.02942830720924</v>
+        <v>3.029428307209558</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003899000000018304</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.4167578474054766</v>
       </c>
       <c r="F4" t="n">
-        <v>15.04095656529163</v>
+        <v>15.04095656529133</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5257697806094</v>
+        <v>149.5257697806122</v>
       </c>
       <c r="H4" t="n">
-        <v>2.005319887125545</v>
+        <v>2.005319887125518</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -651,16 +651,16 @@
         <v>18.86935545809921</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58050106121913</v>
+        <v>13.58050106121894</v>
       </c>
       <c r="L4" t="n">
-        <v>10.64794275292144</v>
+        <v>10.64794275292109</v>
       </c>
       <c r="M4" t="n">
-        <v>1.622958112709862</v>
+        <v>1.622958112709955</v>
       </c>
       <c r="N4" t="n">
-        <v>3.984770197250483</v>
+        <v>3.984770197250652</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.0002996000000052845</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>358.2113715265697</v>
       </c>
       <c r="F5" t="n">
-        <v>9.792565792977648</v>
+        <v>9.792565792978641</v>
       </c>
       <c r="G5" t="n">
-        <v>85.1667408553286</v>
+        <v>85.1667408553301</v>
       </c>
       <c r="H5" t="n">
-        <v>4.838910668854044</v>
+        <v>4.83891066885487</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>40.96385521159853</v>
+        <v>40.96385521159924</v>
       </c>
       <c r="L5" t="n">
-        <v>10.14494244391469</v>
+        <v>10.14494244391603</v>
       </c>
       <c r="M5" t="n">
-        <v>3.806453145441656</v>
+        <v>3.806453145440793</v>
       </c>
       <c r="N5" t="n">
-        <v>3.48512367450824</v>
+        <v>3.485123674507741</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003254999999882102</v>
+        <v>0.0002391000000159238</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9494382928571</v>
       </c>
       <c r="F6" t="n">
-        <v>16.67772559520927</v>
+        <v>16.67772559521066</v>
       </c>
       <c r="G6" t="n">
-        <v>178.3922518993855</v>
+        <v>178.3922518993843</v>
       </c>
       <c r="H6" t="n">
-        <v>8.207833803982322</v>
+        <v>8.207833803983243</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>18.76214634835588</v>
+        <v>18.76214634835753</v>
       </c>
       <c r="L6" t="n">
-        <v>4.452426676736255</v>
+        <v>4.452426676736602</v>
       </c>
       <c r="M6" t="n">
-        <v>1.429126062647405</v>
+        <v>1.429126062646868</v>
       </c>
       <c r="N6" t="n">
-        <v>1.673555320587758</v>
+        <v>1.673555320586986</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003399000000001706</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.5587725131149</v>
       </c>
       <c r="F7" t="n">
-        <v>11.62359781153329</v>
+        <v>11.62359781153398</v>
       </c>
       <c r="G7" t="n">
-        <v>33.35267782314759</v>
+        <v>33.35267782314884</v>
       </c>
       <c r="H7" t="n">
-        <v>6.747951289161364</v>
+        <v>6.747951289161902</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -807,16 +807,16 @@
         <v>31.91172483743855</v>
       </c>
       <c r="K7" t="n">
-        <v>19.3325119388408</v>
+        <v>19.33251193884113</v>
       </c>
       <c r="L7" t="n">
-        <v>16.71318752103247</v>
+        <v>16.71318752103371</v>
       </c>
       <c r="M7" t="n">
-        <v>1.907998658760639</v>
+        <v>1.907998658760388</v>
       </c>
       <c r="N7" t="n">
-        <v>2.669089780989422</v>
+        <v>2.669089780989141</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003182000000094831</v>
+        <v>0.0001863999999898169</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.3117836734875126</v>
       </c>
       <c r="F8" t="n">
-        <v>15.87310166251306</v>
+        <v>15.87310166251303</v>
       </c>
       <c r="G8" t="n">
-        <v>172.6852180042462</v>
+        <v>172.6852180042465</v>
       </c>
       <c r="H8" t="n">
-        <v>6.14312830734641</v>
+        <v>6.143128307346423</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>20.26928156543011</v>
+        <v>20.2692815654301</v>
       </c>
       <c r="L8" t="n">
-        <v>6.337175084428455</v>
+        <v>6.337175084428401</v>
       </c>
       <c r="M8" t="n">
-        <v>1.349933909230641</v>
+        <v>1.349933909230652</v>
       </c>
       <c r="N8" t="n">
-        <v>1.813457665292782</v>
+        <v>1.813457665292799</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003408000000035827</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>358.3094742961997</v>
       </c>
       <c r="F9" t="n">
-        <v>9.431470923808778</v>
+        <v>9.431470923808808</v>
       </c>
       <c r="G9" t="n">
         <v>6.204901668633112</v>
       </c>
       <c r="H9" t="n">
-        <v>10.78908263749701</v>
+        <v>10.7890826374969</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>6.641026189939257</v>
+        <v>6.641026189939245</v>
       </c>
       <c r="L9" t="n">
-        <v>19.81501057262672</v>
+        <v>19.81501057262661</v>
       </c>
       <c r="M9" t="n">
-        <v>2.178714166885334</v>
+        <v>2.178714166885348</v>
       </c>
       <c r="N9" t="n">
-        <v>1.583435566389877</v>
+        <v>1.583435566389905</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005525999999917985</v>
+        <v>0.0003274999999973716</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9087952833802</v>
       </c>
       <c r="F10" t="n">
-        <v>11.78737941170526</v>
+        <v>11.78737941170885</v>
       </c>
       <c r="G10" t="n">
-        <v>162.8270974221523</v>
+        <v>162.8270974221473</v>
       </c>
       <c r="H10" t="n">
-        <v>7.375748089458843</v>
+        <v>7.375748089461979</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>79.25159333177814</v>
+        <v>79.25159333178003</v>
       </c>
       <c r="L10" t="n">
-        <v>3.832207261779858</v>
+        <v>3.832207261781722</v>
       </c>
       <c r="M10" t="n">
-        <v>2.189957977990344</v>
+        <v>2.189957977988676</v>
       </c>
       <c r="N10" t="n">
-        <v>2.788354597500888</v>
+        <v>2.788354597499372</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003159999999979846</v>
+        <v>0.0002216000000032636</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9988914452878</v>
       </c>
       <c r="F11" t="n">
-        <v>14.83578022788987</v>
+        <v>14.83578022788979</v>
       </c>
       <c r="G11" t="n">
-        <v>343.4561595694416</v>
+        <v>343.4561595694431</v>
       </c>
       <c r="H11" t="n">
-        <v>2.674277234128142</v>
+        <v>2.674277234128337</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9602403931752831</v>
+        <v>0.9602403931753085</v>
       </c>
       <c r="L11" t="n">
-        <v>15.29784754319281</v>
+        <v>15.29784754319297</v>
       </c>
       <c r="M11" t="n">
-        <v>1.70259188573662</v>
+        <v>1.702591885736606</v>
       </c>
       <c r="N11" t="n">
-        <v>3.516068465640878</v>
+        <v>3.516068465640771</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005194999999957872</v>
+        <v>0.0001881999999966411</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>358.6684134958705</v>
       </c>
       <c r="F12" t="n">
-        <v>14.20676590745583</v>
+        <v>14.20676590745595</v>
       </c>
       <c r="G12" t="n">
-        <v>66.91395749861697</v>
+        <v>66.91395749861634</v>
       </c>
       <c r="H12" t="n">
-        <v>1.879636695646256</v>
+        <v>1.879636695646317</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>13.15729430926615</v>
+        <v>13.1572943092662</v>
       </c>
       <c r="L12" t="n">
-        <v>12.8072070562249</v>
+        <v>12.80720705622508</v>
       </c>
       <c r="M12" t="n">
-        <v>1.54320837130585</v>
+        <v>1.543208371305815</v>
       </c>
       <c r="N12" t="n">
-        <v>3.42386122877849</v>
+        <v>3.423861228778425</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005148000000048114</v>
+        <v>0.0001929000000018277</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>358.2505452586948</v>
       </c>
       <c r="F13" t="n">
-        <v>10.83445112857311</v>
+        <v>10.83445112857329</v>
       </c>
       <c r="G13" t="n">
-        <v>8.753291304114436</v>
+        <v>8.753291304114805</v>
       </c>
       <c r="H13" t="n">
-        <v>6.83602531445007</v>
+        <v>6.836025314450094</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>7.290761056664429</v>
+        <v>7.290761056664519</v>
       </c>
       <c r="L13" t="n">
-        <v>16.45375391633804</v>
+        <v>16.45375391633825</v>
       </c>
       <c r="M13" t="n">
-        <v>1.986371450979702</v>
+        <v>1.986371450979652</v>
       </c>
       <c r="N13" t="n">
-        <v>4.14686525821508</v>
+        <v>4.146865258215051</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003416999999927839</v>
+        <v>0.0002226999999948021</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.52701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>11.81254514861498</v>
+        <v>11.81254514861447</v>
       </c>
       <c r="G14" t="n">
-        <v>19.76922099549054</v>
+        <v>19.76922099548962</v>
       </c>
       <c r="H14" t="n">
-        <v>6.613815715880976</v>
+        <v>6.613815715880516</v>
       </c>
       <c r="I14" t="n">
         <v>14.58896536332175</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>12.70595461970935</v>
+        <v>12.7059546197091</v>
       </c>
       <c r="L14" t="n">
-        <v>17.08292979407868</v>
+        <v>17.08292979407765</v>
       </c>
       <c r="M14" t="n">
-        <v>2.030007330612903</v>
+        <v>2.030007330613112</v>
       </c>
       <c r="N14" t="n">
-        <v>2.526765680468385</v>
+        <v>2.526765680468625</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005096000000008871</v>
+        <v>0.0002415000000155487</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.7123906620505903</v>
       </c>
       <c r="F15" t="n">
-        <v>15.27555713479434</v>
+        <v>15.27555713479362</v>
       </c>
       <c r="G15" t="n">
-        <v>163.1035838575598</v>
+        <v>163.1035838575611</v>
       </c>
       <c r="H15" t="n">
-        <v>4.848756893057799</v>
+        <v>4.848756893057479</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>23.28469128170696</v>
+        <v>23.28469128170643</v>
       </c>
       <c r="L15" t="n">
-        <v>7.719410682749761</v>
+        <v>7.719410682749299</v>
       </c>
       <c r="M15" t="n">
-        <v>1.344836826732398</v>
+        <v>1.344836826732587</v>
       </c>
       <c r="N15" t="n">
-        <v>2.216739463709211</v>
+        <v>2.216739463709567</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0004878999999959888</v>
+        <v>0.0002169999999921401</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>358.448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>9.831146900071353</v>
+        <v>9.831146900070262</v>
       </c>
       <c r="G16" t="n">
-        <v>78.45054412853641</v>
+        <v>78.45054412853544</v>
       </c>
       <c r="H16" t="n">
-        <v>5.423937775641685</v>
+        <v>5.423937775640638</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>40.53625800775797</v>
+        <v>40.53625800775731</v>
       </c>
       <c r="L16" t="n">
-        <v>11.20312487886721</v>
+        <v>11.20312487886548</v>
       </c>
       <c r="M16" t="n">
-        <v>3.419142082631115</v>
+        <v>3.419142082632015</v>
       </c>
       <c r="N16" t="n">
-        <v>3.348223783309246</v>
+        <v>3.348223783309772</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004940000000033251</v>
+        <v>0.0002455999999995129</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.3123284815435487</v>
       </c>
       <c r="F17" t="n">
-        <v>15.66489566962827</v>
+        <v>15.66489566962885</v>
       </c>
       <c r="G17" t="n">
-        <v>170.3177801809813</v>
+        <v>170.3177801809804</v>
       </c>
       <c r="H17" t="n">
-        <v>4.68445926805463</v>
+        <v>4.684459268054898</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1327,16 +1327,16 @@
         <v>12.54421959985167</v>
       </c>
       <c r="K17" t="n">
-        <v>16.34258007476629</v>
+        <v>16.34258007476674</v>
       </c>
       <c r="L17" t="n">
-        <v>7.82310264805957</v>
+        <v>7.823102648059875</v>
       </c>
       <c r="M17" t="n">
-        <v>1.481485050065881</v>
+        <v>1.481485050065724</v>
       </c>
       <c r="N17" t="n">
-        <v>1.846812735131556</v>
+        <v>1.84681273513125</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005191000000053236</v>
+        <v>0.0001969000000201504</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>13.31119114692818</v>
+        <v>13.31119114692853</v>
       </c>
       <c r="G18" t="n">
-        <v>35.81897480407541</v>
+        <v>35.81897480407658</v>
       </c>
       <c r="H18" t="n">
-        <v>4.776890516311389</v>
+        <v>4.776890516311461</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>16.33033332266698</v>
+        <v>16.33033332266713</v>
       </c>
       <c r="L18" t="n">
-        <v>15.98792833635085</v>
+        <v>15.98792833635123</v>
       </c>
       <c r="M18" t="n">
-        <v>1.288502015045159</v>
+        <v>1.288502015045101</v>
       </c>
       <c r="N18" t="n">
-        <v>2.398645453087905</v>
+        <v>2.398645453087791</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003332999999940967</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.7237341099787</v>
       </c>
       <c r="F19" t="n">
-        <v>12.33266569759524</v>
+        <v>12.3326656975954</v>
       </c>
       <c r="G19" t="n">
-        <v>45.97245079602592</v>
+        <v>45.97245079602603</v>
       </c>
       <c r="H19" t="n">
-        <v>4.735652240004306</v>
+        <v>4.735652240004439</v>
       </c>
       <c r="I19" t="n">
         <v>22.80758777377703</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>20.82133391046126</v>
+        <v>20.82133391046134</v>
       </c>
       <c r="L19" t="n">
-        <v>14.62053510673851</v>
+        <v>14.6205351067388</v>
       </c>
       <c r="M19" t="n">
-        <v>1.785395510930122</v>
+        <v>1.785395510930062</v>
       </c>
       <c r="N19" t="n">
-        <v>2.645576819868295</v>
+        <v>2.645576819868217</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003683000000052061</v>
+        <v>0.0002417000000036751</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9205715561937</v>
       </c>
       <c r="F20" t="n">
-        <v>13.22828652978644</v>
+        <v>13.22828652978794</v>
       </c>
       <c r="G20" t="n">
-        <v>121.8061062062441</v>
+        <v>121.8061062062416</v>
       </c>
       <c r="H20" t="n">
-        <v>4.898161938608411</v>
+        <v>4.898161938609339</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>39.28679594507418</v>
+        <v>39.2867959450749</v>
       </c>
       <c r="L20" t="n">
-        <v>9.70823721323114</v>
+        <v>9.708237213232696</v>
       </c>
       <c r="M20" t="n">
-        <v>1.692991993747841</v>
+        <v>1.692991993747374</v>
       </c>
       <c r="N20" t="n">
-        <v>2.414661652326692</v>
+        <v>2.414661652326038</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003540999999955829</v>
+        <v>0.0001893999999822427</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.7789967373178</v>
       </c>
       <c r="F21" t="n">
-        <v>12.4962558827697</v>
+        <v>12.49625588276945</v>
       </c>
       <c r="G21" t="n">
-        <v>10.69843570907756</v>
+        <v>10.69843570907708</v>
       </c>
       <c r="H21" t="n">
-        <v>6.149314970855085</v>
+        <v>6.149314970854947</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>8.277145028848436</v>
+        <v>8.277145028848333</v>
       </c>
       <c r="L21" t="n">
-        <v>17.31103653522039</v>
+        <v>17.31103653521998</v>
       </c>
       <c r="M21" t="n">
-        <v>1.706207240842808</v>
+        <v>1.70620724084288</v>
       </c>
       <c r="N21" t="n">
-        <v>2.615535061603083</v>
+        <v>2.615535061603167</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003319000000061578</v>
+        <v>0.0001911999999890668</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.1161068873827</v>
       </c>
       <c r="F22" t="n">
-        <v>10.81724527684536</v>
+        <v>10.81724527684807</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2472767594025</v>
+        <v>100.247276759404</v>
       </c>
       <c r="H22" t="n">
-        <v>6.233020298762129</v>
+        <v>6.233020298764581</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>50.6048788329724</v>
+        <v>50.60487883297376</v>
       </c>
       <c r="L22" t="n">
-        <v>10.82302902866665</v>
+        <v>10.82302902867008</v>
       </c>
       <c r="M22" t="n">
-        <v>2.241944789757388</v>
+        <v>2.241944789756146</v>
       </c>
       <c r="N22" t="n">
-        <v>2.928215926786203</v>
+        <v>2.92821592678511</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003273999999890975</v>
+        <v>0.0001812999999799558</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.05196424950553487</v>
       </c>
       <c r="F23" t="n">
-        <v>15.34105099266321</v>
+        <v>15.34105099266298</v>
       </c>
       <c r="G23" t="n">
-        <v>350.3617052851593</v>
+        <v>350.361705285161</v>
       </c>
       <c r="H23" t="n">
-        <v>1.463743447444914</v>
+        <v>1.463743447445166</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>3.52405460022359</v>
+        <v>3.524054600223564</v>
       </c>
       <c r="L23" t="n">
-        <v>14.4837679633287</v>
+        <v>14.48376796332877</v>
       </c>
       <c r="M23" t="n">
-        <v>1.664483265426482</v>
+        <v>1.664483265426495</v>
       </c>
       <c r="N23" t="n">
-        <v>3.562900239804551</v>
+        <v>3.562900239804415</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003234999999932597</v>
+        <v>0.000274399999995012</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.09194991986519468</v>
       </c>
       <c r="F24" t="n">
-        <v>13.19095833215227</v>
+        <v>13.19095833215183</v>
       </c>
       <c r="G24" t="n">
-        <v>38.93864167342868</v>
+        <v>38.93864167342673</v>
       </c>
       <c r="H24" t="n">
-        <v>2.971473379619759</v>
+        <v>2.971473379619658</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1691,16 +1691,16 @@
         <v>26.83511193928066</v>
       </c>
       <c r="K24" t="n">
-        <v>14.42196399908418</v>
+        <v>14.42196399908395</v>
       </c>
       <c r="L24" t="n">
-        <v>13.78241754711559</v>
+        <v>13.7824175471151</v>
       </c>
       <c r="M24" t="n">
-        <v>1.948507804358217</v>
+        <v>1.948507804358347</v>
       </c>
       <c r="N24" t="n">
-        <v>3.000713751255516</v>
+        <v>3.000713751255582</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002945000000096343</v>
+        <v>0.0002390999999875021</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.3330119436465</v>
       </c>
       <c r="F25" t="n">
-        <v>10.90028746184487</v>
+        <v>10.90028746184647</v>
       </c>
       <c r="G25" t="n">
-        <v>87.21635862742923</v>
+        <v>87.21635862743047</v>
       </c>
       <c r="H25" t="n">
-        <v>6.677865696032003</v>
+        <v>6.677865696033515</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>46.21297215060824</v>
+        <v>46.21297215060896</v>
       </c>
       <c r="L25" t="n">
-        <v>12.5326729610722</v>
+        <v>12.53267296107455</v>
       </c>
       <c r="M25" t="n">
-        <v>1.966720921345679</v>
+        <v>1.966720921345026</v>
       </c>
       <c r="N25" t="n">
-        <v>2.796232797823416</v>
+        <v>2.796232797822778</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.000183300000003328</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>358.6707878273508</v>
       </c>
       <c r="F26" t="n">
-        <v>16.2198986957742</v>
+        <v>16.21989869577502</v>
       </c>
       <c r="G26" t="n">
-        <v>169.3366523651915</v>
+        <v>169.3366523651907</v>
       </c>
       <c r="H26" t="n">
-        <v>8.220615807432734</v>
+        <v>8.220615807433251</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>33.85596891951805</v>
+        <v>33.85596891951885</v>
       </c>
       <c r="L26" t="n">
-        <v>4.702061708610776</v>
+        <v>4.7020617086111</v>
       </c>
       <c r="M26" t="n">
-        <v>2.057571689966654</v>
+        <v>2.057571689966273</v>
       </c>
       <c r="N26" t="n">
-        <v>1.612213281035196</v>
+        <v>1.612213281034791</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003435999999936712</v>
+        <v>0.0001856000000088898</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.7717269103339</v>
       </c>
       <c r="F27" t="n">
-        <v>14.8659842107923</v>
+        <v>14.8659842107928</v>
       </c>
       <c r="G27" t="n">
-        <v>161.2093339133872</v>
+        <v>161.2093339133864</v>
       </c>
       <c r="H27" t="n">
-        <v>6.89916212834596</v>
+        <v>6.899162128346253</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>40.5748762747239</v>
+        <v>40.57487627472426</v>
       </c>
       <c r="L27" t="n">
-        <v>5.808342891770836</v>
+        <v>5.808342891771125</v>
       </c>
       <c r="M27" t="n">
-        <v>1.792417861491138</v>
+        <v>1.792417861490962</v>
       </c>
       <c r="N27" t="n">
-        <v>2.017804302771259</v>
+        <v>2.017804302771019</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002907000000078597</v>
+        <v>0.000183300000003328</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.80400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>12.81293831393722</v>
+        <v>12.81293831393728</v>
       </c>
       <c r="G28" t="n">
-        <v>51.56689733415726</v>
+        <v>51.56689733415828</v>
       </c>
       <c r="H28" t="n">
-        <v>4.600101695668731</v>
+        <v>4.600101695668646</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>21.79996690472392</v>
+        <v>21.79996690472396</v>
       </c>
       <c r="L28" t="n">
-        <v>14.67745409009092</v>
+        <v>14.67745409009084</v>
       </c>
       <c r="M28" t="n">
-        <v>1.65463983798819</v>
+        <v>1.654639837988198</v>
       </c>
       <c r="N28" t="n">
-        <v>2.495437899222555</v>
+        <v>2.495437899222551</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003176000000024715</v>
+        <v>0.0001890000000059899</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>358.7143945847677</v>
       </c>
       <c r="F29" t="n">
-        <v>10.33082042789803</v>
+        <v>10.33082042789793</v>
       </c>
       <c r="G29" t="n">
-        <v>65.50213482709222</v>
+        <v>65.50213482709196</v>
       </c>
       <c r="H29" t="n">
-        <v>6.062925921918423</v>
+        <v>6.062925921918344</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>35.16767719436678</v>
+        <v>35.16767719436672</v>
       </c>
       <c r="L29" t="n">
-        <v>13.12429402658053</v>
+        <v>13.12429402658037</v>
       </c>
       <c r="M29" t="n">
-        <v>2.666699557010215</v>
+        <v>2.666699557010269</v>
       </c>
       <c r="N29" t="n">
-        <v>3.023923584111557</v>
+        <v>3.023923584111603</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003255999999964843</v>
+        <v>0.0002307999999970889</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.55366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>13.82035485352259</v>
+        <v>13.82035485352009</v>
       </c>
       <c r="G30" t="n">
-        <v>132.0664084575727</v>
+        <v>132.0664084575751</v>
       </c>
       <c r="H30" t="n">
-        <v>5.839828982846651</v>
+        <v>5.839828982845022</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>43.90904894218426</v>
+        <v>43.90904894218303</v>
       </c>
       <c r="L30" t="n">
-        <v>9.03391783189584</v>
+        <v>9.033917831893707</v>
       </c>
       <c r="M30" t="n">
-        <v>1.606472457716479</v>
+        <v>1.606472457717168</v>
       </c>
       <c r="N30" t="n">
-        <v>2.074867798751955</v>
+        <v>2.074867798752993</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0001852000000042153</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.417482126304551</v>
       </c>
       <c r="F31" t="n">
-        <v>15.4524949597525</v>
+        <v>15.45249495975343</v>
       </c>
       <c r="G31" t="n">
-        <v>170.3463957124052</v>
+        <v>170.3463957124033</v>
       </c>
       <c r="H31" t="n">
-        <v>5.431050126783682</v>
+        <v>5.431050126784048</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>20.33556957731303</v>
+        <v>20.33556957731379</v>
       </c>
       <c r="L31" t="n">
-        <v>6.836868186091373</v>
+        <v>6.836868186091972</v>
       </c>
       <c r="M31" t="n">
-        <v>1.608169690636018</v>
+        <v>1.608169690635697</v>
       </c>
       <c r="N31" t="n">
-        <v>2.034019424357978</v>
+        <v>2.034019424357508</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003214999999983092</v>
+        <v>0.0001913000000115517</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>1.2640526647764</v>
       </c>
       <c r="F32" t="n">
-        <v>12.90608633762133</v>
+        <v>12.90608633762167</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0066221698873</v>
+        <v>145.0066221698874</v>
       </c>
       <c r="H32" t="n">
-        <v>3.843594013635684</v>
+        <v>3.843594013635879</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>32.21182865577318</v>
+        <v>32.21182865577348</v>
       </c>
       <c r="L32" t="n">
-        <v>7.692024138829324</v>
+        <v>7.692024138829516</v>
       </c>
       <c r="M32" t="n">
-        <v>1.775176517744673</v>
+        <v>1.775176517744554</v>
       </c>
       <c r="N32" t="n">
-        <v>3.498937272379192</v>
+        <v>3.49893727237904</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.000331899999991947</v>
+        <v>0.0002416000000096119</v>
       </c>
     </row>
     <row r="33">
@@ -2144,10 +2144,10 @@
         <v>0.4147572142515962</v>
       </c>
       <c r="F33" t="n">
-        <v>11.13315252121979</v>
+        <v>11.13315252121995</v>
       </c>
       <c r="G33" t="n">
-        <v>45.78632568792209</v>
+        <v>45.78632568792288</v>
       </c>
       <c r="H33" t="n">
         <v>6.04091137287446</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>25.40876129761957</v>
+        <v>25.40876129761966</v>
       </c>
       <c r="L33" t="n">
-        <v>15.02491864008813</v>
+        <v>15.02491864008824</v>
       </c>
       <c r="M33" t="n">
-        <v>1.906541774448281</v>
+        <v>1.906541774448253</v>
       </c>
       <c r="N33" t="n">
-        <v>3.042126995671817</v>
+        <v>3.042126995671762</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0004309999999918546</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.3488944509894297</v>
       </c>
       <c r="F34" t="n">
-        <v>14.94038851239203</v>
+        <v>14.94038851239212</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9741432586684</v>
+        <v>167.974143258668</v>
       </c>
       <c r="H34" t="n">
-        <v>5.749637918010272</v>
+        <v>5.749637918010294</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>25.83018414084901</v>
+        <v>25.83018414084908</v>
       </c>
       <c r="L34" t="n">
-        <v>6.194500117508003</v>
+        <v>6.194500117508093</v>
       </c>
       <c r="M34" t="n">
-        <v>1.604901964097327</v>
+        <v>1.604901964097291</v>
       </c>
       <c r="N34" t="n">
-        <v>2.238164644891329</v>
+        <v>2.238164644891285</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003070000000064965</v>
+        <v>0.0002415999999811902</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.3188535051081249</v>
       </c>
       <c r="F35" t="n">
-        <v>13.61489024748242</v>
+        <v>13.61489024748305</v>
       </c>
       <c r="G35" t="n">
-        <v>47.78644640919341</v>
+        <v>47.78644640919265</v>
       </c>
       <c r="H35" t="n">
-        <v>3.229738413527384</v>
+        <v>3.229738413527873</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>16.83833465207864</v>
+        <v>16.83833465207896</v>
       </c>
       <c r="L35" t="n">
-        <v>14.21168748323674</v>
+        <v>14.21168748323788</v>
       </c>
       <c r="M35" t="n">
-        <v>1.495862382593005</v>
+        <v>1.495862382592812</v>
       </c>
       <c r="N35" t="n">
-        <v>2.809871124030503</v>
+        <v>2.809871124030187</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0001867999999944914</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.7561648993723</v>
       </c>
       <c r="F36" t="n">
-        <v>13.58123050221912</v>
+        <v>13.58123050221904</v>
       </c>
       <c r="G36" t="n">
-        <v>359.974282697438</v>
+        <v>359.9742826974384</v>
       </c>
       <c r="H36" t="n">
-        <v>5.481435735555353</v>
+        <v>5.481435735555755</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2315,16 +2315,16 @@
         <v>32.24479883815602</v>
       </c>
       <c r="K36" t="n">
-        <v>3.619601772227218</v>
+        <v>3.619601772227281</v>
       </c>
       <c r="L36" t="n">
-        <v>17.57753112194169</v>
+        <v>17.5775311219421</v>
       </c>
       <c r="M36" t="n">
-        <v>1.606907623797509</v>
+        <v>1.606907623797469</v>
       </c>
       <c r="N36" t="n">
-        <v>2.736919459653464</v>
+        <v>2.736919459653337</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003312999999991462</v>
+        <v>0.0001857000000029529</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>1.889736710087848</v>
       </c>
       <c r="F37" t="n">
-        <v>12.60776971612807</v>
+        <v>12.60776971612753</v>
       </c>
       <c r="G37" t="n">
-        <v>152.8604085818704</v>
+        <v>152.8604085818726</v>
       </c>
       <c r="H37" t="n">
-        <v>2.685150713212767</v>
+        <v>2.68515071321257</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2367,16 +2367,16 @@
         <v>20.58139294425217</v>
       </c>
       <c r="K37" t="n">
-        <v>23.23827977910074</v>
+        <v>23.23827977910026</v>
       </c>
       <c r="L37" t="n">
-        <v>7.745517497182546</v>
+        <v>7.745517497182105</v>
       </c>
       <c r="M37" t="n">
-        <v>2.497174941133998</v>
+        <v>2.497174941134299</v>
       </c>
       <c r="N37" t="n">
-        <v>5.080293583396452</v>
+        <v>5.080293583396736</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003155999999933101</v>
+        <v>0.0001857999999970161</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.3235867342455</v>
       </c>
       <c r="F38" t="n">
-        <v>12.74073835141797</v>
+        <v>12.74073835141751</v>
       </c>
       <c r="G38" t="n">
-        <v>131.2285708290245</v>
+        <v>131.2285708290258</v>
       </c>
       <c r="H38" t="n">
-        <v>5.470647845899871</v>
+        <v>5.470647845899554</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>45.78205828878157</v>
+        <v>45.78205828878138</v>
       </c>
       <c r="L38" t="n">
-        <v>8.312249138710079</v>
+        <v>8.312249138709586</v>
       </c>
       <c r="M38" t="n">
-        <v>2.151660558762559</v>
+        <v>2.151660558762753</v>
       </c>
       <c r="N38" t="n">
-        <v>2.43435942733589</v>
+        <v>2.434359427336101</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.05446361233749655</v>
       </c>
       <c r="F39" t="n">
-        <v>16.34521982773331</v>
+        <v>16.34521982773239</v>
       </c>
       <c r="G39" t="n">
-        <v>175.6246047244075</v>
+        <v>175.6246047244089</v>
       </c>
       <c r="H39" t="n">
-        <v>7.188010210215682</v>
+        <v>7.188010210215275</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>19.77742421991276</v>
+        <v>19.77742421991185</v>
       </c>
       <c r="L39" t="n">
-        <v>5.449839472756405</v>
+        <v>5.449839472755905</v>
       </c>
       <c r="M39" t="n">
-        <v>1.501326863182125</v>
+        <v>1.501326863182461</v>
       </c>
       <c r="N39" t="n">
-        <v>1.64461492049113</v>
+        <v>1.644614920491617</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003217999999947097</v>
+        <v>0.0002499999999940883</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>358.9912943518833</v>
       </c>
       <c r="F40" t="n">
-        <v>10.49097866112664</v>
+        <v>10.49097866112686</v>
       </c>
       <c r="G40" t="n">
-        <v>59.89959678708942</v>
+        <v>59.89959678709005</v>
       </c>
       <c r="H40" t="n">
-        <v>6.225859035835825</v>
+        <v>6.225859035835976</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>32.66335893448478</v>
+        <v>32.66335893448492</v>
       </c>
       <c r="L40" t="n">
-        <v>13.80264171507761</v>
+        <v>13.80264171507792</v>
       </c>
       <c r="M40" t="n">
-        <v>2.509323723509406</v>
+        <v>2.509323723509308</v>
       </c>
       <c r="N40" t="n">
-        <v>2.989489335537127</v>
+        <v>2.989489335537029</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003157999999956473</v>
+        <v>0.0001850999999817304</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>358.5951604339781</v>
       </c>
       <c r="F41" t="n">
-        <v>10.18852618409021</v>
+        <v>10.18852618408871</v>
       </c>
       <c r="G41" t="n">
-        <v>87.75479855521824</v>
+        <v>87.7547985552159</v>
       </c>
       <c r="H41" t="n">
-        <v>5.515506860724321</v>
+        <v>5.515506860723059</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>43.90289757828095</v>
+        <v>43.90289757828</v>
       </c>
       <c r="L41" t="n">
-        <v>10.86498043485027</v>
+        <v>10.86498043484831</v>
       </c>
       <c r="M41" t="n">
-        <v>3.001124395692361</v>
+        <v>3.001124395693308</v>
       </c>
       <c r="N41" t="n">
-        <v>3.217809064232023</v>
+        <v>3.217809064232714</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003074999999910233</v>
+        <v>0.0003122999999902731</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.6075476972112318</v>
       </c>
       <c r="F42" t="n">
-        <v>15.02827472329365</v>
+        <v>15.02827472329399</v>
       </c>
       <c r="G42" t="n">
-        <v>141.5691436779669</v>
+        <v>141.5691436779635</v>
       </c>
       <c r="H42" t="n">
-        <v>1.784730574974227</v>
+        <v>1.784730574974269</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2627,16 +2627,16 @@
         <v>19.40305890800094</v>
       </c>
       <c r="K42" t="n">
-        <v>13.92398318977455</v>
+        <v>13.92398318977475</v>
       </c>
       <c r="L42" t="n">
-        <v>11.05830503153427</v>
+        <v>11.05830503153467</v>
       </c>
       <c r="M42" t="n">
-        <v>1.531088702429525</v>
+        <v>1.531088702429427</v>
       </c>
       <c r="N42" t="n">
-        <v>4.250386480593335</v>
+        <v>4.250386480593136</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003736000000031936</v>
+        <v>0.0002412000000049375</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.2707123230673222</v>
       </c>
       <c r="F43" t="n">
-        <v>15.09820395207063</v>
+        <v>15.09820395207062</v>
       </c>
       <c r="G43" t="n">
-        <v>127.7022716568079</v>
+        <v>127.7022716568191</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8234065989487637</v>
+        <v>0.8234065989488382</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2679,16 +2679,16 @@
         <v>20.81671725181581</v>
       </c>
       <c r="K43" t="n">
-        <v>9.668704848169686</v>
+        <v>9.668704848169648</v>
       </c>
       <c r="L43" t="n">
-        <v>12.04854481680552</v>
+        <v>12.0485448168053</v>
       </c>
       <c r="M43" t="n">
-        <v>1.467292127689719</v>
+        <v>1.467292127689749</v>
       </c>
       <c r="N43" t="n">
-        <v>5.174757514705338</v>
+        <v>5.174757514705599</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003091999999895734</v>
+        <v>0.0002402000000074622</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.5032858469888</v>
       </c>
       <c r="F44" t="n">
-        <v>10.95718594901368</v>
+        <v>10.95718594901454</v>
       </c>
       <c r="G44" t="n">
-        <v>60.87674074483592</v>
+        <v>60.87674074483652</v>
       </c>
       <c r="H44" t="n">
-        <v>6.73119987054632</v>
+        <v>6.731199870547226</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>33.53019150794443</v>
+        <v>33.53019150794481</v>
       </c>
       <c r="L44" t="n">
-        <v>14.72132541161044</v>
+        <v>14.72132541161208</v>
       </c>
       <c r="M44" t="n">
-        <v>2.04385613270437</v>
+        <v>2.043856132703964</v>
       </c>
       <c r="N44" t="n">
-        <v>2.822949412256153</v>
+        <v>2.822949412255796</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002911999999923864</v>
+        <v>0.0002148000000090633</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.7426000746553</v>
       </c>
       <c r="F45" t="n">
-        <v>12.76958279203702</v>
+        <v>12.76958279203734</v>
       </c>
       <c r="G45" t="n">
-        <v>13.10201980094395</v>
+        <v>13.10201980094464</v>
       </c>
       <c r="H45" t="n">
-        <v>5.516174477925926</v>
+        <v>5.516174477926067</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>8.94747140314616</v>
+        <v>8.947471403146288</v>
       </c>
       <c r="L45" t="n">
-        <v>16.80467451081518</v>
+        <v>16.80467451081565</v>
       </c>
       <c r="M45" t="n">
-        <v>1.635374953190417</v>
+        <v>1.635374953190333</v>
       </c>
       <c r="N45" t="n">
-        <v>2.542581774866406</v>
+        <v>2.542581774866292</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003036999999892487</v>
+        <v>0.0001998000000185129</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.7506147172558701</v>
       </c>
       <c r="F46" t="n">
-        <v>16.17308872030603</v>
+        <v>16.17308872030613</v>
       </c>
       <c r="G46" t="n">
-        <v>177.4800700496985</v>
+        <v>177.4800700496978</v>
       </c>
       <c r="H46" t="n">
-        <v>5.375537616137607</v>
+        <v>5.375537616137467</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>13.18539568327006</v>
+        <v>13.18539568327021</v>
       </c>
       <c r="L46" t="n">
-        <v>7.303471965987846</v>
+        <v>7.303471965988134</v>
       </c>
       <c r="M46" t="n">
-        <v>1.747372823271331</v>
+        <v>1.747372823271252</v>
       </c>
       <c r="N46" t="n">
-        <v>2.794390018706981</v>
+        <v>2.794390018706809</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0002446999999961008</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9736252271504</v>
       </c>
       <c r="F47" t="n">
-        <v>16.89044239678395</v>
+        <v>16.89044239678385</v>
       </c>
       <c r="G47" t="n">
-        <v>181.6124842411185</v>
+        <v>181.6124842411184</v>
       </c>
       <c r="H47" t="n">
-        <v>8.431807686086119</v>
+        <v>8.431807686085936</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>11.9175076279695</v>
+        <v>11.91750762796948</v>
       </c>
       <c r="L47" t="n">
-        <v>4.251553915293541</v>
+        <v>4.251553915293652</v>
       </c>
       <c r="M47" t="n">
-        <v>1.496947754040578</v>
+        <v>1.496947754040593</v>
       </c>
       <c r="N47" t="n">
-        <v>1.649330728529667</v>
+        <v>1.64933072852969</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002927000000028102</v>
+        <v>0.0002317999999945641</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.4151241601295</v>
       </c>
       <c r="F48" t="n">
-        <v>13.78784144173973</v>
+        <v>13.7878414417407</v>
       </c>
       <c r="G48" t="n">
-        <v>142.5934589366798</v>
+        <v>142.5934589366783</v>
       </c>
       <c r="H48" t="n">
-        <v>6.447923984966954</v>
+        <v>6.44792398496761</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>48.75315053869824</v>
+        <v>48.75315053869872</v>
       </c>
       <c r="L48" t="n">
-        <v>7.620920630074457</v>
+        <v>7.620920630075246</v>
       </c>
       <c r="M48" t="n">
-        <v>1.852246194067207</v>
+        <v>1.852246194066893</v>
       </c>
       <c r="N48" t="n">
-        <v>2.136026598306723</v>
+        <v>2.136026598306306</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000294999999994161</v>
+        <v>0.0002446999999961008</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.8480094757661352</v>
       </c>
       <c r="F49" t="n">
-        <v>13.56880703314559</v>
+        <v>13.5688070331455</v>
       </c>
       <c r="G49" t="n">
-        <v>17.59259141736143</v>
+        <v>17.59259141736117</v>
       </c>
       <c r="H49" t="n">
-        <v>3.350804726214391</v>
+        <v>3.350804726214336</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>9.924064985280989</v>
+        <v>9.924064985280939</v>
       </c>
       <c r="L49" t="n">
-        <v>15.00843333368648</v>
+        <v>15.00843333368633</v>
       </c>
       <c r="M49" t="n">
-        <v>1.841608561930035</v>
+        <v>1.841608561930067</v>
       </c>
       <c r="N49" t="n">
-        <v>3.512801577396035</v>
+        <v>3.512801577396073</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.000339400000001433</v>
+        <v>0.0002528999999924508</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.9936313199284542</v>
       </c>
       <c r="F50" t="n">
-        <v>14.5685182062741</v>
+        <v>14.56851820627417</v>
       </c>
       <c r="G50" t="n">
-        <v>337.4812275577644</v>
+        <v>337.4812275577642</v>
       </c>
       <c r="H50" t="n">
-        <v>2.80699633251615</v>
+        <v>2.806996332516117</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3043,16 +3043,16 @@
         <v>33.86101386425069</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5060937005895737</v>
+        <v>0.5060937005895864</v>
       </c>
       <c r="L50" t="n">
-        <v>15.0621218745379</v>
+        <v>15.06212187453793</v>
       </c>
       <c r="M50" t="n">
-        <v>1.950718251729691</v>
+        <v>1.95071825172968</v>
       </c>
       <c r="N50" t="n">
-        <v>4.30576411638749</v>
+        <v>4.3057641163875</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003012000000097714</v>
+        <v>0.0001903000000140764</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>1.043159078206592</v>
       </c>
       <c r="F51" t="n">
-        <v>14.30104786606524</v>
+        <v>14.30104786606515</v>
       </c>
       <c r="G51" t="n">
-        <v>115.6087692180265</v>
+        <v>115.6087692180293</v>
       </c>
       <c r="H51" t="n">
-        <v>1.493542167210941</v>
+        <v>1.493542167210921</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>15.60745575129061</v>
+        <v>15.60745575129055</v>
       </c>
       <c r="L51" t="n">
-        <v>11.32525149614096</v>
+        <v>11.32525149614079</v>
       </c>
       <c r="M51" t="n">
-        <v>1.518317020499826</v>
+        <v>1.518317020499862</v>
       </c>
       <c r="N51" t="n">
-        <v>4.820712264955302</v>
+        <v>4.820712264955407</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000298299999997198</v>
+        <v>0.0002058999999974276</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>1.560352108683647</v>
       </c>
       <c r="F52" t="n">
-        <v>13.41057255839932</v>
+        <v>13.41057255839961</v>
       </c>
       <c r="G52" t="n">
-        <v>151.744355339093</v>
+        <v>151.74435533909</v>
       </c>
       <c r="H52" t="n">
-        <v>2.820691810409738</v>
+        <v>2.820691810409764</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>21.89580593934297</v>
+        <v>21.8958059393432</v>
       </c>
       <c r="L52" t="n">
-        <v>8.414739072660911</v>
+        <v>8.414739072661302</v>
       </c>
       <c r="M52" t="n">
-        <v>1.98399887532021</v>
+        <v>1.983998875320061</v>
       </c>
       <c r="N52" t="n">
-        <v>4.481551158171419</v>
+        <v>4.481551158171243</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0005801000000076328</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.2905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>15.08814458893961</v>
+        <v>15.08814458893977</v>
       </c>
       <c r="G53" t="n">
-        <v>151.7608222556336</v>
+        <v>151.760822255634</v>
       </c>
       <c r="H53" t="n">
-        <v>2.550493937636976</v>
+        <v>2.55049393763706</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>15.41376437969475</v>
+        <v>15.41376437969483</v>
       </c>
       <c r="L53" t="n">
-        <v>10.13998608229129</v>
+        <v>10.13998608229136</v>
       </c>
       <c r="M53" t="n">
-        <v>1.41209503780751</v>
+        <v>1.412095037807481</v>
       </c>
       <c r="N53" t="n">
-        <v>2.579182819314659</v>
+        <v>2.57918281931458</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.0002443000000198481</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.4805241593859</v>
       </c>
       <c r="F54" t="n">
-        <v>15.71439180499742</v>
+        <v>15.71439180499691</v>
       </c>
       <c r="G54" t="n">
-        <v>144.2109169524598</v>
+        <v>144.2109169524602</v>
       </c>
       <c r="H54" t="n">
-        <v>1.872640719147581</v>
+        <v>1.872640719147412</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>11.7355084173051</v>
+        <v>11.73550841730484</v>
       </c>
       <c r="L54" t="n">
-        <v>11.51523931623165</v>
+        <v>11.51523931623128</v>
       </c>
       <c r="M54" t="n">
-        <v>1.325979760518999</v>
+        <v>1.325979760519096</v>
       </c>
       <c r="N54" t="n">
-        <v>1.867669200239387</v>
+        <v>1.867669200239612</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002935999999920114</v>
+        <v>0.0001878000000203883</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.7941351331494</v>
       </c>
       <c r="F55" t="n">
-        <v>14.37538464331006</v>
+        <v>14.37538464331223</v>
       </c>
       <c r="G55" t="n">
-        <v>157.7436418295536</v>
+        <v>157.7436418295499</v>
       </c>
       <c r="H55" t="n">
-        <v>6.392847237270732</v>
+        <v>6.392847237272016</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>40.81960474069533</v>
+        <v>40.81960474069688</v>
       </c>
       <c r="L55" t="n">
-        <v>6.156475655312461</v>
+        <v>6.156475655313852</v>
       </c>
       <c r="M55" t="n">
-        <v>1.793765491554555</v>
+        <v>1.793765491553794</v>
       </c>
       <c r="N55" t="n">
-        <v>2.165037340152131</v>
+        <v>2.165037340151085</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002963999999963107</v>
+        <v>0.0002023000000122011</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>1.852210744612911</v>
       </c>
       <c r="F56" t="n">
-        <v>12.83388440678376</v>
+        <v>12.83388440678372</v>
       </c>
       <c r="G56" t="n">
-        <v>135.8786256764208</v>
+        <v>135.8786256764227</v>
       </c>
       <c r="H56" t="n">
-        <v>2.377205848032199</v>
+        <v>2.377205848032214</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>23.62885848765546</v>
+        <v>23.62885848765545</v>
       </c>
       <c r="L56" t="n">
-        <v>8.910002374530482</v>
+        <v>8.910002374530343</v>
       </c>
       <c r="M56" t="n">
-        <v>1.964344158030342</v>
+        <v>1.964344158030381</v>
       </c>
       <c r="N56" t="n">
-        <v>4.883236823364417</v>
+        <v>4.883236823364471</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.0002064999999902284</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>1.623731114633993</v>
       </c>
       <c r="F57" t="n">
-        <v>14.54298649211973</v>
+        <v>14.54298649211981</v>
       </c>
       <c r="G57" t="n">
-        <v>334.5590356812833</v>
+        <v>334.5590356813051</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09619262427021733</v>
+        <v>0.09619262427024126</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>7.264892403641306</v>
+        <v>7.264892403641369</v>
       </c>
       <c r="L57" t="n">
-        <v>12.12233884513241</v>
+        <v>12.12233884513254</v>
       </c>
       <c r="M57" t="n">
-        <v>2.300337153588982</v>
+        <v>2.300337153588941</v>
       </c>
       <c r="N57" t="n">
-        <v>5.392605968063399</v>
+        <v>5.392605968062828</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002923000000123466</v>
+        <v>0.0003756999999779964</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>1.037643175502579</v>
       </c>
       <c r="F58" t="n">
-        <v>17.1944957726556</v>
+        <v>17.1944957726554</v>
       </c>
       <c r="G58" t="n">
-        <v>186.8781370211014</v>
+        <v>186.8781370211016</v>
       </c>
       <c r="H58" t="n">
-        <v>9.275744496834882</v>
+        <v>9.275744496834752</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>2.417838557179953</v>
+        <v>2.417838557179635</v>
       </c>
       <c r="L58" t="n">
-        <v>3.527668554421326</v>
+        <v>3.527668554421277</v>
       </c>
       <c r="M58" t="n">
-        <v>3.890148854300493</v>
+        <v>3.890148854300736</v>
       </c>
       <c r="N58" t="n">
-        <v>3.976594546926485</v>
+        <v>3.976594546926529</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003020000000049095</v>
+        <v>0.0002317000000005009</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.1310521573469041</v>
       </c>
       <c r="F59" t="n">
-        <v>14.01478201047346</v>
+        <v>14.01478201047332</v>
       </c>
       <c r="G59" t="n">
-        <v>1.233306968602732</v>
+        <v>1.233306968603203</v>
       </c>
       <c r="H59" t="n">
-        <v>2.241258891912855</v>
+        <v>2.241258891913176</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>5.1126803096064</v>
+        <v>5.112680309606426</v>
       </c>
       <c r="L59" t="n">
-        <v>14.14354244917585</v>
+        <v>14.1435424491761</v>
       </c>
       <c r="M59" t="n">
-        <v>1.703429138332173</v>
+        <v>1.703429138332152</v>
       </c>
       <c r="N59" t="n">
-        <v>3.110960739137776</v>
+        <v>3.110960739137601</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0007397999999909644</v>
+        <v>0.0002435999999761407</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.7601861461745285</v>
       </c>
       <c r="F60" t="n">
-        <v>12.89091277282812</v>
+        <v>12.89091277282766</v>
       </c>
       <c r="G60" t="n">
-        <v>73.69508028838736</v>
+        <v>73.69508028838443</v>
       </c>
       <c r="H60" t="n">
-        <v>3.134717176837104</v>
+        <v>3.134717176836983</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3563,16 +3563,16 @@
         <v>23.90445332822715</v>
       </c>
       <c r="K60" t="n">
-        <v>23.60899134231636</v>
+        <v>23.60899134231609</v>
       </c>
       <c r="L60" t="n">
-        <v>12.36440024581808</v>
+        <v>12.36440024581772</v>
       </c>
       <c r="M60" t="n">
-        <v>1.501372317051615</v>
+        <v>1.501372317051708</v>
       </c>
       <c r="N60" t="n">
-        <v>3.100869740211651</v>
+        <v>3.100869740211703</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003085999999967726</v>
+        <v>0.0002062000000080388</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>1.669283521394728</v>
       </c>
       <c r="F61" t="n">
-        <v>16.0233703930058</v>
+        <v>16.02337039300564</v>
       </c>
       <c r="G61" t="n">
-        <v>188.3934143065271</v>
+        <v>188.3934143065273</v>
       </c>
       <c r="H61" t="n">
-        <v>8.509938277734111</v>
+        <v>8.509938277734031</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>2.545330342701855</v>
+        <v>2.545330342701524</v>
       </c>
       <c r="L61" t="n">
-        <v>3.30091742297457</v>
+        <v>3.300917422974512</v>
       </c>
       <c r="M61" t="n">
-        <v>5.508787501879016</v>
+        <v>5.508787501879312</v>
       </c>
       <c r="N61" t="n">
-        <v>6.058634149653094</v>
+        <v>6.058634149653151</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002915000000029977</v>
+        <v>0.0001909000000068772</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.9217709932130896</v>
       </c>
       <c r="F62" t="n">
-        <v>14.42109809886017</v>
+        <v>14.42109809886028</v>
       </c>
       <c r="G62" t="n">
-        <v>143.6106810168349</v>
+        <v>143.6106810168353</v>
       </c>
       <c r="H62" t="n">
-        <v>1.65644563697587</v>
+        <v>1.656445636975924</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>14.20011785108739</v>
+        <v>14.20011785108745</v>
       </c>
       <c r="L62" t="n">
-        <v>10.52430596455984</v>
+        <v>10.5243059645599</v>
       </c>
       <c r="M62" t="n">
-        <v>1.946208616669511</v>
+        <v>1.94620861666948</v>
       </c>
       <c r="N62" t="n">
-        <v>5.409156111639795</v>
+        <v>5.409156111639762</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0007581000000129734</v>
+        <v>0.0002323999999873649</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.4314955515598153</v>
       </c>
       <c r="F63" t="n">
-        <v>15.56067896347854</v>
+        <v>15.56067896347878</v>
       </c>
       <c r="G63" t="n">
-        <v>168.580114135807</v>
+        <v>168.5801141358069</v>
       </c>
       <c r="H63" t="n">
-        <v>4.696766748836185</v>
+        <v>4.696766748836331</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>17.95032477632463</v>
+        <v>17.9503247763248</v>
       </c>
       <c r="L63" t="n">
-        <v>7.798957599934899</v>
+        <v>7.798957599934977</v>
       </c>
       <c r="M63" t="n">
-        <v>1.598264020800708</v>
+        <v>1.598264020800646</v>
       </c>
       <c r="N63" t="n">
-        <v>1.929943693874368</v>
+        <v>1.929943693874242</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003124999999926104</v>
+        <v>0.0001915999999937412</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.01232542630370722</v>
       </c>
       <c r="F64" t="n">
-        <v>15.29302648438614</v>
+        <v>15.29302648438608</v>
       </c>
       <c r="G64" t="n">
-        <v>355.0881047688601</v>
+        <v>355.0881047688599</v>
       </c>
       <c r="H64" t="n">
-        <v>3.115699838869412</v>
+        <v>3.1156998388694</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3771,16 +3771,16 @@
         <v>28.06116813307842</v>
       </c>
       <c r="K64" t="n">
-        <v>2.97920166350835</v>
+        <v>2.979201663508324</v>
       </c>
       <c r="L64" t="n">
-        <v>16.42397026478647</v>
+        <v>16.42397026478639</v>
       </c>
       <c r="M64" t="n">
-        <v>1.389254320896915</v>
+        <v>1.389254320896927</v>
       </c>
       <c r="N64" t="n">
-        <v>3.01666196087268</v>
+        <v>3.016661960872694</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.000300800000005097</v>
+        <v>0.0002029000000050019</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>2.138978653518098</v>
       </c>
       <c r="F65" t="n">
-        <v>11.99653399002197</v>
+        <v>11.99653399002196</v>
       </c>
       <c r="G65" t="n">
-        <v>152.0364666062799</v>
+        <v>152.0364666062844</v>
       </c>
       <c r="H65" t="n">
-        <v>3.191060527558182</v>
+        <v>3.191060527558347</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>29.68101080429425</v>
+        <v>29.68101080429433</v>
       </c>
       <c r="L65" t="n">
-        <v>6.894166665136594</v>
+        <v>6.894166665136226</v>
       </c>
       <c r="M65" t="n">
-        <v>2.485174651702281</v>
+        <v>2.485174651702371</v>
       </c>
       <c r="N65" t="n">
-        <v>4.714390023342595</v>
+        <v>4.714390023342665</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0001897999999869171</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>358.8996770607683</v>
       </c>
       <c r="F66" t="n">
-        <v>11.06194429435259</v>
+        <v>11.06194429435145</v>
       </c>
       <c r="G66" t="n">
-        <v>54.65350540877841</v>
+        <v>54.65350540877778</v>
       </c>
       <c r="H66" t="n">
-        <v>5.239506388202416</v>
+        <v>5.239506388201327</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>26.73933359051029</v>
+        <v>26.73933359050971</v>
       </c>
       <c r="L66" t="n">
-        <v>13.52752843275014</v>
+        <v>13.52752843274802</v>
       </c>
       <c r="M66" t="n">
-        <v>2.634174941176509</v>
+        <v>2.634174941177205</v>
       </c>
       <c r="N66" t="n">
-        <v>2.851712065737713</v>
+        <v>2.85171206573829</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003315999999955466</v>
+        <v>0.0001842000000067401</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.8336648231326874</v>
       </c>
       <c r="F67" t="n">
-        <v>15.93878714498412</v>
+        <v>15.93878714498424</v>
       </c>
       <c r="G67" t="n">
-        <v>179.0838383251069</v>
+        <v>179.0838383251065</v>
       </c>
       <c r="H67" t="n">
-        <v>2.305027483797288</v>
+        <v>2.305027483797314</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>7.803849270598731</v>
+        <v>7.803849270598808</v>
       </c>
       <c r="L67" t="n">
-        <v>10.65372526208063</v>
+        <v>10.65372526208073</v>
       </c>
       <c r="M67" t="n">
-        <v>1.627434073744799</v>
+        <v>1.627434073744768</v>
       </c>
       <c r="N67" t="n">
-        <v>5.733795860131459</v>
+        <v>5.733795860131398</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0002342999999882522</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>358.5843856359357</v>
       </c>
       <c r="F68" t="n">
-        <v>11.90219987110122</v>
+        <v>11.90219987110116</v>
       </c>
       <c r="G68" t="n">
-        <v>11.33860338067862</v>
+        <v>11.33860338067851</v>
       </c>
       <c r="H68" t="n">
-        <v>5.844404611932211</v>
+        <v>5.844404611932208</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>7.945506398874628</v>
+        <v>7.945506398874602</v>
       </c>
       <c r="L68" t="n">
-        <v>16.31523437688154</v>
+        <v>16.31523437688149</v>
       </c>
       <c r="M68" t="n">
-        <v>1.811796220991408</v>
+        <v>1.81179622099142</v>
       </c>
       <c r="N68" t="n">
-        <v>1.946564199358572</v>
+        <v>1.946564199358584</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002946999999977606</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>358.8714778477798</v>
       </c>
       <c r="F69" t="n">
-        <v>10.22678382652434</v>
+        <v>10.22678382652193</v>
       </c>
       <c r="G69" t="n">
-        <v>88.88802380624008</v>
+        <v>88.88802380623784</v>
       </c>
       <c r="H69" t="n">
-        <v>5.77511578447479</v>
+        <v>5.77511578447259</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>45.56757273429083</v>
+        <v>45.56757273428948</v>
       </c>
       <c r="L69" t="n">
-        <v>11.06025616781032</v>
+        <v>11.06025616780693</v>
       </c>
       <c r="M69" t="n">
-        <v>2.757713582856204</v>
+        <v>2.757713582857681</v>
       </c>
       <c r="N69" t="n">
-        <v>3.20160728689453</v>
+        <v>3.201607286895588</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003364999999888596</v>
+        <v>0.0001973999999904663</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.9444763643716535</v>
       </c>
       <c r="F70" t="n">
-        <v>15.52477185498491</v>
+        <v>15.5247718549851</v>
       </c>
       <c r="G70" t="n">
-        <v>178.8555361718422</v>
+        <v>178.855536171842</v>
       </c>
       <c r="H70" t="n">
-        <v>2.819585820355853</v>
+        <v>2.819585820355998</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>8.915268761466935</v>
+        <v>8.915268761467011</v>
       </c>
       <c r="L70" t="n">
-        <v>9.639936041002336</v>
+        <v>9.639936041002361</v>
       </c>
       <c r="M70" t="n">
-        <v>1.799048032148759</v>
+        <v>1.799048032148719</v>
       </c>
       <c r="N70" t="n">
-        <v>5.419174285296085</v>
+        <v>5.419174285295961</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000290899999995986</v>
+        <v>0.0002088000000242118</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.0844929014519</v>
       </c>
       <c r="F71" t="n">
-        <v>10.75526705414096</v>
+        <v>10.75526705414187</v>
       </c>
       <c r="G71" t="n">
-        <v>42.4941515588668</v>
+        <v>42.49415155886847</v>
       </c>
       <c r="H71" t="n">
-        <v>6.784235148060019</v>
+        <v>6.784235148060812</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>24.68061782871076</v>
+        <v>24.68061782871123</v>
       </c>
       <c r="L71" t="n">
-        <v>15.56191760143069</v>
+        <v>15.56191760143233</v>
       </c>
       <c r="M71" t="n">
-        <v>2.158738291565052</v>
+        <v>2.158738291564654</v>
       </c>
       <c r="N71" t="n">
-        <v>2.767589749025655</v>
+        <v>2.767589749025243</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002894999999938364</v>
+        <v>0.000186600000006365</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.1490025916981</v>
       </c>
       <c r="F72" t="n">
-        <v>13.79970905323178</v>
+        <v>13.79970905322463</v>
       </c>
       <c r="G72" t="n">
-        <v>169.1412462697586</v>
+        <v>169.1412462697678</v>
       </c>
       <c r="H72" t="n">
-        <v>8.475283211104903</v>
+        <v>8.475283211099294</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>67.49926533586289</v>
+        <v>67.49926533585788</v>
       </c>
       <c r="L72" t="n">
-        <v>3.118901242491785</v>
+        <v>3.118901242488896</v>
       </c>
       <c r="M72" t="n">
-        <v>2.726867306352019</v>
+        <v>2.72686730635635</v>
       </c>
       <c r="N72" t="n">
-        <v>2.560341049742913</v>
+        <v>2.560341049746381</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.000884200000001556</v>
+        <v>0.0002352999999857275</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.4306031497297935</v>
       </c>
       <c r="F73" t="n">
-        <v>14.40301858651183</v>
+        <v>14.40301858651192</v>
       </c>
       <c r="G73" t="n">
-        <v>46.32969248721444</v>
+        <v>46.32969248721324</v>
       </c>
       <c r="H73" t="n">
-        <v>1.770733704037996</v>
+        <v>1.770733704038097</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>11.99404409507233</v>
+        <v>11.99404409507238</v>
       </c>
       <c r="L73" t="n">
-        <v>13.54928724009654</v>
+        <v>13.54928724009676</v>
       </c>
       <c r="M73" t="n">
-        <v>1.565467848901577</v>
+        <v>1.56546784890154</v>
       </c>
       <c r="N73" t="n">
-        <v>3.522924803869627</v>
+        <v>3.522924803869536</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003310000000027458</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.6814545009342</v>
       </c>
       <c r="F74" t="n">
-        <v>12.54009294057057</v>
+        <v>12.54009294057054</v>
       </c>
       <c r="G74" t="n">
-        <v>12.06122571581612</v>
+        <v>12.06122571581604</v>
       </c>
       <c r="H74" t="n">
-        <v>5.894548468822426</v>
+        <v>5.894548468822443</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4294,13 +4294,13 @@
         <v>8.705888197357863</v>
       </c>
       <c r="L74" t="n">
-        <v>17.03714354135754</v>
+        <v>17.03714354135753</v>
       </c>
       <c r="M74" t="n">
-        <v>1.768360213161053</v>
+        <v>1.768360213161058</v>
       </c>
       <c r="N74" t="n">
-        <v>2.561727815509596</v>
+        <v>2.561727815509595</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003026999999917734</v>
+        <v>0.0001867999999944914</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.42318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>13.60300017715056</v>
+        <v>13.60300017715145</v>
       </c>
       <c r="G75" t="n">
-        <v>113.4204534480292</v>
+        <v>113.4204534480283</v>
       </c>
       <c r="H75" t="n">
-        <v>5.583199454311417</v>
+        <v>5.583199454312022</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>40.78900005518116</v>
+        <v>40.78900005518152</v>
       </c>
       <c r="L75" t="n">
-        <v>10.99286916581906</v>
+        <v>10.99286916582004</v>
       </c>
       <c r="M75" t="n">
-        <v>1.625078465659917</v>
+        <v>1.625078465659667</v>
       </c>
       <c r="N75" t="n">
-        <v>2.08240093271715</v>
+        <v>2.082400932716822</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003116999999974723</v>
+        <v>0.0001836999999795808</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.3916545061923</v>
       </c>
       <c r="F76" t="n">
-        <v>11.9859944222244</v>
+        <v>11.98599442222439</v>
       </c>
       <c r="G76" t="n">
-        <v>29.49490279454128</v>
+        <v>29.49490279454076</v>
       </c>
       <c r="H76" t="n">
-        <v>6.738980536343138</v>
+        <v>6.738980536343419</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>17.02667744884561</v>
+        <v>17.02667744884562</v>
       </c>
       <c r="L76" t="n">
-        <v>17.15982310394374</v>
+        <v>17.15982310394408</v>
       </c>
       <c r="M76" t="n">
-        <v>1.711956639295732</v>
+        <v>1.71195663929568</v>
       </c>
       <c r="N76" t="n">
-        <v>2.508293705164751</v>
+        <v>2.508293705164682</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003384000000039578</v>
+        <v>0.0001859999999851425</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.7095021339760793</v>
       </c>
       <c r="F77" t="n">
-        <v>15.10794049247195</v>
+        <v>15.10794049247136</v>
       </c>
       <c r="G77" t="n">
-        <v>159.6009454694407</v>
+        <v>159.6009454694448</v>
       </c>
       <c r="H77" t="n">
-        <v>3.164403740567554</v>
+        <v>3.164403740567532</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>16.70936849240841</v>
+        <v>16.70936849240802</v>
       </c>
       <c r="L77" t="n">
-        <v>9.325015650947302</v>
+        <v>9.32501565094659</v>
       </c>
       <c r="M77" t="n">
-        <v>1.637311256977713</v>
+        <v>1.637311256977926</v>
       </c>
       <c r="N77" t="n">
-        <v>3.159039031120907</v>
+        <v>3.159039031121191</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002890000000093096</v>
+        <v>0.0002486000000203603</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.0596986892811</v>
       </c>
       <c r="F78" t="n">
-        <v>11.01984541018169</v>
+        <v>11.01984541018027</v>
       </c>
       <c r="G78" t="n">
-        <v>46.86705063634928</v>
+        <v>46.86705063634693</v>
       </c>
       <c r="H78" t="n">
-        <v>6.698432224808565</v>
+        <v>6.698432224807306</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>26.25676813077291</v>
+        <v>26.25676813077221</v>
       </c>
       <c r="L78" t="n">
-        <v>15.49653368469212</v>
+        <v>15.49653368468955</v>
       </c>
       <c r="M78" t="n">
-        <v>2.113630654078633</v>
+        <v>2.113630654079262</v>
       </c>
       <c r="N78" t="n">
-        <v>2.690757297849182</v>
+        <v>2.690757297849803</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003147999999981721</v>
+        <v>0.0001972999999964031</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.7755551479245</v>
       </c>
       <c r="F79" t="n">
-        <v>15.64281320358407</v>
+        <v>15.64281320358453</v>
       </c>
       <c r="G79" t="n">
-        <v>168.7993804501609</v>
+        <v>168.7993804501599</v>
       </c>
       <c r="H79" t="n">
-        <v>7.974625530360129</v>
+        <v>7.974625530360356</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>39.20072118811461</v>
+        <v>39.20072118811485</v>
       </c>
       <c r="L79" t="n">
-        <v>4.695933947381378</v>
+        <v>4.695933947381681</v>
       </c>
       <c r="M79" t="n">
-        <v>1.568508491293813</v>
+        <v>1.568508491293679</v>
       </c>
       <c r="N79" t="n">
-        <v>1.81736039933254</v>
+        <v>1.817360399332322</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0006291999999916698</v>
+        <v>0.0001916999999878044</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.8779538627754</v>
       </c>
       <c r="F80" t="n">
-        <v>14.17947474719479</v>
+        <v>14.17947474719466</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2447624759093719</v>
+        <v>0.2447624759094736</v>
       </c>
       <c r="H80" t="n">
-        <v>3.762345672368986</v>
+        <v>3.762345672369192</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4606,13 +4606,13 @@
         <v>4.125038200603114</v>
       </c>
       <c r="L80" t="n">
-        <v>16.11961248130993</v>
+        <v>16.11961248131005</v>
       </c>
       <c r="M80" t="n">
-        <v>1.711515282235666</v>
+        <v>1.711515282235663</v>
       </c>
       <c r="N80" t="n">
-        <v>3.118948303614184</v>
+        <v>3.118948303614129</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.000185900000019501</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>3.316358820770084</v>
       </c>
       <c r="F81" t="n">
-        <v>10.07405252188495</v>
+        <v>10.07405252188471</v>
       </c>
       <c r="G81" t="n">
-        <v>169.0578217937746</v>
+        <v>169.0578217937785</v>
       </c>
       <c r="H81" t="n">
-        <v>2.512434365181477</v>
+        <v>2.512434365181511</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>27.42957851114519</v>
+        <v>27.42957851114474</v>
       </c>
       <c r="L81" t="n">
-        <v>5.048247364528905</v>
+        <v>5.048247364528527</v>
       </c>
       <c r="M81" t="n">
-        <v>4.958067096927738</v>
+        <v>4.958067096928271</v>
       </c>
       <c r="N81" t="n">
-        <v>6.535760335345601</v>
+        <v>6.535760335345834</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002966999999927111</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>358.1001470638519</v>
       </c>
       <c r="F82" t="n">
-        <v>10.39539401643846</v>
+        <v>10.39539401643896</v>
       </c>
       <c r="G82" t="n">
-        <v>80.92170885608864</v>
+        <v>80.92170885608877</v>
       </c>
       <c r="H82" t="n">
-        <v>5.389633965223766</v>
+        <v>5.38963396522424</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>39.357417520229</v>
+        <v>39.35741752022929</v>
       </c>
       <c r="L82" t="n">
-        <v>11.37317180306579</v>
+        <v>11.37317180306658</v>
       </c>
       <c r="M82" t="n">
-        <v>3.233088345603983</v>
+        <v>3.233088345603599</v>
       </c>
       <c r="N82" t="n">
-        <v>3.115600703124746</v>
+        <v>3.115600703124507</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002929000000051474</v>
+        <v>0.0002410000000168111</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>1.359900342218693</v>
       </c>
       <c r="F83" t="n">
-        <v>13.77358241917947</v>
+        <v>13.7735824191799</v>
       </c>
       <c r="G83" t="n">
-        <v>120.990220066693</v>
+        <v>120.990220066699</v>
       </c>
       <c r="H83" t="n">
-        <v>2.115414474374853</v>
+        <v>2.115414474375055</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>20.45965329443634</v>
+        <v>20.45965329443661</v>
       </c>
       <c r="L83" t="n">
-        <v>10.50922621602334</v>
+        <v>10.50922621602344</v>
       </c>
       <c r="M83" t="n">
-        <v>1.830415754109237</v>
+        <v>1.830415754109148</v>
       </c>
       <c r="N83" t="n">
-        <v>4.630807980486736</v>
+        <v>4.630807980486742</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003147999999981721</v>
+        <v>0.0002015999999969154</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.1593495972439</v>
       </c>
       <c r="F84" t="n">
-        <v>11.22482567528602</v>
+        <v>11.22482567528628</v>
       </c>
       <c r="G84" t="n">
-        <v>38.51161468768514</v>
+        <v>38.51161468768544</v>
       </c>
       <c r="H84" t="n">
-        <v>5.831061367026099</v>
+        <v>5.831061367026383</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>20.84743435280916</v>
+        <v>20.84743435280931</v>
       </c>
       <c r="L84" t="n">
-        <v>15.06904510578705</v>
+        <v>15.06904510578761</v>
       </c>
       <c r="M84" t="n">
-        <v>2.234337393638623</v>
+        <v>2.234337393638481</v>
       </c>
       <c r="N84" t="n">
-        <v>2.718145964140391</v>
+        <v>2.718145964140249</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002991000000065469</v>
+        <v>0.000183300000003328</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>11.41030085997433</v>
+        <v>11.41030085997451</v>
       </c>
       <c r="G85" t="n">
-        <v>36.470172796596</v>
+        <v>36.47017279659661</v>
       </c>
       <c r="H85" t="n">
-        <v>6.219921505094367</v>
+        <v>6.219921505094419</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>20.18100990731685</v>
+        <v>20.18100990731693</v>
       </c>
       <c r="L85" t="n">
-        <v>15.76261475880845</v>
+        <v>15.76261475880866</v>
       </c>
       <c r="M85" t="n">
-        <v>1.998293803814079</v>
+        <v>1.998293803814028</v>
       </c>
       <c r="N85" t="n">
-        <v>2.616503751790773</v>
+        <v>2.616503751790712</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.000343399999991334</v>
+        <v>0.0001882999999907042</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.1316122019755955</v>
       </c>
       <c r="F86" t="n">
-        <v>13.75763558885755</v>
+        <v>13.7576355888576</v>
       </c>
       <c r="G86" t="n">
-        <v>355.039506130062</v>
+        <v>355.0395061300624</v>
       </c>
       <c r="H86" t="n">
-        <v>3.479951843949588</v>
+        <v>3.479951843949692</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4915,16 +4915,16 @@
         <v>26.33679661486171</v>
       </c>
       <c r="K86" t="n">
-        <v>3.145792266884755</v>
+        <v>3.145792266884806</v>
       </c>
       <c r="L86" t="n">
-        <v>15.32463049393069</v>
+        <v>15.32463049393087</v>
       </c>
       <c r="M86" t="n">
-        <v>1.810079614381913</v>
+        <v>1.810079614381882</v>
       </c>
       <c r="N86" t="n">
-        <v>2.911446197082126</v>
+        <v>2.911446197082054</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003578000000032944</v>
+        <v>0.0001852000000042153</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.8231492789211</v>
       </c>
       <c r="F87" t="n">
-        <v>13.05603212106328</v>
+        <v>13.05603212106266</v>
       </c>
       <c r="G87" t="n">
-        <v>112.3249041424067</v>
+        <v>112.3249041424079</v>
       </c>
       <c r="H87" t="n">
-        <v>4.834746757398874</v>
+        <v>4.834746757398464</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>38.2689325180157</v>
+        <v>38.26893251801542</v>
       </c>
       <c r="L87" t="n">
-        <v>10.48994518196295</v>
+        <v>10.4899451819622</v>
       </c>
       <c r="M87" t="n">
-        <v>1.721082282205866</v>
+        <v>1.721082282206069</v>
       </c>
       <c r="N87" t="n">
-        <v>2.369335978250894</v>
+        <v>2.36933597825118</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003007000000110338</v>
+        <v>0.0002389999999934389</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.596285718967305</v>
       </c>
       <c r="F88" t="n">
-        <v>14.94723949065208</v>
+        <v>14.94723949065192</v>
       </c>
       <c r="G88" t="n">
-        <v>129.7039662927824</v>
+        <v>129.7039662927889</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9016475054083196</v>
+        <v>0.9016475054083275</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>10.50616688581578</v>
+        <v>10.50616688581566</v>
       </c>
       <c r="L88" t="n">
-        <v>11.83732723418155</v>
+        <v>11.83732723418128</v>
       </c>
       <c r="M88" t="n">
-        <v>1.623846275688595</v>
+        <v>1.623846275688654</v>
       </c>
       <c r="N88" t="n">
-        <v>5.769493257059993</v>
+        <v>5.769493257060201</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002938000000085594</v>
+        <v>0.0001947000000086518</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.6276244791469</v>
       </c>
       <c r="F89" t="n">
-        <v>10.71098339035395</v>
+        <v>10.71098339035827</v>
       </c>
       <c r="G89" t="n">
-        <v>117.1722391514418</v>
+        <v>117.1722391514423</v>
       </c>
       <c r="H89" t="n">
-        <v>6.164652311226301</v>
+        <v>6.164652311230244</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>58.45327856823814</v>
+        <v>58.45327856824051</v>
       </c>
       <c r="L89" t="n">
-        <v>9.014182545897686</v>
+        <v>9.014182545902333</v>
       </c>
       <c r="M89" t="n">
-        <v>2.199135253936784</v>
+        <v>2.199135253934812</v>
       </c>
       <c r="N89" t="n">
-        <v>2.916383868643056</v>
+        <v>2.916383868641362</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003303999999957341</v>
+        <v>0.0001819000000011783</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.8931156958482</v>
       </c>
       <c r="F90" t="n">
-        <v>13.51060215688368</v>
+        <v>13.51060215688234</v>
       </c>
       <c r="G90" t="n">
-        <v>119.7596469610721</v>
+        <v>119.7596469610727</v>
       </c>
       <c r="H90" t="n">
-        <v>5.065922573745015</v>
+        <v>5.065922573744187</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>39.19334028205479</v>
+        <v>39.1933402820541</v>
       </c>
       <c r="L90" t="n">
-        <v>10.16334439713652</v>
+        <v>10.16334439713526</v>
       </c>
       <c r="M90" t="n">
-        <v>1.675293922151582</v>
+        <v>1.675293922151962</v>
       </c>
       <c r="N90" t="n">
-        <v>2.316453914053779</v>
+        <v>2.316453914054317</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003170000000096707</v>
+        <v>0.0001857000000029529</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>1.693730026547098</v>
       </c>
       <c r="F91" t="n">
-        <v>13.39599218811315</v>
+        <v>13.39599218811273</v>
       </c>
       <c r="G91" t="n">
-        <v>153.6487344001176</v>
+        <v>153.6487344001166</v>
       </c>
       <c r="H91" t="n">
-        <v>3.038580354371202</v>
+        <v>3.038580354370938</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>22.99111467707888</v>
+        <v>22.99111467707856</v>
       </c>
       <c r="L91" t="n">
-        <v>8.154084752619923</v>
+        <v>8.154084752619786</v>
       </c>
       <c r="M91" t="n">
-        <v>2.02610230499564</v>
+        <v>2.026102304995776</v>
       </c>
       <c r="N91" t="n">
-        <v>4.540143335406558</v>
+        <v>4.540143335406731</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.000186600000006365</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.2244866681993254</v>
       </c>
       <c r="F92" t="n">
-        <v>14.43731687328322</v>
+        <v>14.43731687328333</v>
       </c>
       <c r="G92" t="n">
-        <v>26.73182205947046</v>
+        <v>26.73182205947572</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8496459899333018</v>
+        <v>0.8496459899331097</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5230,13 +5230,13 @@
         <v>7.54207924647177</v>
       </c>
       <c r="L92" t="n">
-        <v>12.84255266188611</v>
+        <v>12.84255266188597</v>
       </c>
       <c r="M92" t="n">
-        <v>1.651272136758853</v>
+        <v>1.651272136758863</v>
       </c>
       <c r="N92" t="n">
-        <v>3.373719368985416</v>
+        <v>3.373719368985393</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0005516999999883865</v>
+        <v>0.0002426000000070871</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.6061210177347658</v>
       </c>
       <c r="F93" t="n">
-        <v>14.42656580096586</v>
+        <v>14.42656580096563</v>
       </c>
       <c r="G93" t="n">
-        <v>62.87739369460259</v>
+        <v>62.87739369460434</v>
       </c>
       <c r="H93" t="n">
-        <v>1.291101382550041</v>
+        <v>1.291101382549925</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>12.18258755528507</v>
+        <v>12.18258755528493</v>
       </c>
       <c r="L93" t="n">
-        <v>12.80407259758069</v>
+        <v>12.80407259758033</v>
       </c>
       <c r="M93" t="n">
-        <v>1.501795909075248</v>
+        <v>1.501795909075317</v>
       </c>
       <c r="N93" t="n">
-        <v>4.010796456250564</v>
+        <v>4.010796456250709</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003159999999979846</v>
+        <v>0.0002010000000041146</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.7697007582177</v>
       </c>
       <c r="F94" t="n">
-        <v>14.51688699161777</v>
+        <v>14.51688699161176</v>
       </c>
       <c r="G94" t="n">
-        <v>163.3237272100001</v>
+        <v>163.3237272100071</v>
       </c>
       <c r="H94" t="n">
-        <v>8.37484762211874</v>
+        <v>8.374847622114245</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>60.36526353586802</v>
+        <v>60.36526353586435</v>
       </c>
       <c r="L94" t="n">
-        <v>4.59739956174798</v>
+        <v>4.597399561745042</v>
       </c>
       <c r="M94" t="n">
-        <v>1.44569981437839</v>
+        <v>1.445699814380111</v>
       </c>
       <c r="N94" t="n">
-        <v>1.99427807651459</v>
+        <v>1.994278076517258</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003035999999951855</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>358.3698019196562</v>
       </c>
       <c r="F95" t="n">
-        <v>11.55805175174964</v>
+        <v>11.55805175174991</v>
       </c>
       <c r="G95" t="n">
-        <v>98.36143788898595</v>
+        <v>98.36143788898585</v>
       </c>
       <c r="H95" t="n">
-        <v>5.63694674756925</v>
+        <v>5.636946747569477</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>43.44924736485773</v>
+        <v>43.44924736485785</v>
       </c>
       <c r="L95" t="n">
-        <v>10.95528611959288</v>
+        <v>10.95528611959324</v>
       </c>
       <c r="M95" t="n">
-        <v>2.494975124233946</v>
+        <v>2.494975124233809</v>
       </c>
       <c r="N95" t="n">
-        <v>2.784631289974935</v>
+        <v>2.784631289974826</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002987000000018725</v>
+        <v>0.0002039000000024771</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.2565467844867</v>
       </c>
       <c r="F96" t="n">
-        <v>13.17832477051641</v>
+        <v>13.17832477051506</v>
       </c>
       <c r="G96" t="n">
-        <v>127.4980036742253</v>
+        <v>127.4980036742261</v>
       </c>
       <c r="H96" t="n">
-        <v>5.818184372493559</v>
+        <v>5.818184372492622</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>46.01600247317154</v>
+        <v>46.01600247317083</v>
       </c>
       <c r="L96" t="n">
-        <v>9.087356690497604</v>
+        <v>9.087356690496412</v>
       </c>
       <c r="M96" t="n">
-        <v>1.858994475918942</v>
+        <v>1.858994475919381</v>
       </c>
       <c r="N96" t="n">
-        <v>2.314093391136891</v>
+        <v>2.314093391137415</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003311999999908721</v>
+        <v>0.000202099999995653</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.6642888995524697</v>
       </c>
       <c r="F97" t="n">
-        <v>15.02034784356396</v>
+        <v>15.02034784356399</v>
       </c>
       <c r="G97" t="n">
-        <v>114.4052081982451</v>
+        <v>114.4052081982337</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9829938515634298</v>
+        <v>0.9829938515633981</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>11.47476490245152</v>
+        <v>11.47476490245157</v>
       </c>
       <c r="L97" t="n">
-        <v>12.15860436336807</v>
+        <v>12.15860436336833</v>
       </c>
       <c r="M97" t="n">
-        <v>1.514167045461395</v>
+        <v>1.514167045461359</v>
       </c>
       <c r="N97" t="n">
-        <v>5.167637168793561</v>
+        <v>5.167637168793266</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002947999999918238</v>
+        <v>0.0003039999999998599</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>11.69426714129668</v>
+        <v>11.69426714129673</v>
       </c>
       <c r="G98" t="n">
-        <v>33.22512205245929</v>
+        <v>33.22512205245916</v>
       </c>
       <c r="H98" t="n">
-        <v>6.250223315003196</v>
+        <v>6.250223315003335</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>18.9321909729016</v>
+        <v>18.93219097290163</v>
       </c>
       <c r="L98" t="n">
-        <v>16.23004438409194</v>
+        <v>16.23004438409215</v>
       </c>
       <c r="M98" t="n">
-        <v>1.834325665386477</v>
+        <v>1.834325665386437</v>
       </c>
       <c r="N98" t="n">
-        <v>2.83173804234199</v>
+        <v>2.831738042341951</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>1.751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>9.535470061100753</v>
+        <v>9.535470061098804</v>
       </c>
       <c r="G99" t="n">
-        <v>166.9782663460628</v>
+        <v>166.9782663460679</v>
       </c>
       <c r="H99" t="n">
-        <v>5.289533966307336</v>
+        <v>5.289533966305687</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>75.82539621610505</v>
+        <v>75.82539621610285</v>
       </c>
       <c r="L99" t="n">
-        <v>2.982876942409193</v>
+        <v>2.982876942408137</v>
       </c>
       <c r="M99" t="n">
-        <v>1.963063725588003</v>
+        <v>1.963063725589266</v>
       </c>
       <c r="N99" t="n">
-        <v>3.73471064692357</v>
+        <v>3.734710646924702</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003552999999953954</v>
+        <v>0.0001809000000037031</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.5262829187342</v>
       </c>
       <c r="F100" t="n">
-        <v>13.05302950563229</v>
+        <v>13.05302950563094</v>
       </c>
       <c r="G100" t="n">
-        <v>133.5446446173706</v>
+        <v>133.5446446173724</v>
       </c>
       <c r="H100" t="n">
-        <v>5.385178890209335</v>
+        <v>5.385178890208452</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>43.83926806170501</v>
+        <v>43.83926806170425</v>
       </c>
       <c r="L100" t="n">
-        <v>8.296677389098974</v>
+        <v>8.296677389097795</v>
       </c>
       <c r="M100" t="n">
-        <v>1.930217812294314</v>
+        <v>1.930217812294792</v>
       </c>
       <c r="N100" t="n">
-        <v>2.419872266365505</v>
+        <v>2.41987226636611</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003005000000086966</v>
+        <v>0.0001847000000054777</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.1423588427019467</v>
       </c>
       <c r="F101" t="n">
-        <v>13.62236718692774</v>
+        <v>13.62236718693063</v>
       </c>
       <c r="G101" t="n">
-        <v>128.7487852320987</v>
+        <v>128.7487852320959</v>
       </c>
       <c r="H101" t="n">
-        <v>4.982435231667615</v>
+        <v>4.982435231669345</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>38.92946745156689</v>
+        <v>38.9294674515685</v>
       </c>
       <c r="L101" t="n">
-        <v>9.337352129572812</v>
+        <v>9.337352129575359</v>
       </c>
       <c r="M101" t="n">
-        <v>1.539029134373586</v>
+        <v>1.539029134372801</v>
       </c>
       <c r="N101" t="n">
-        <v>2.432840508666009</v>
+        <v>2.432840508664785</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003031999999905111</v>
+        <v>0.0001849999999876673</v>
       </c>
     </row>
   </sheetData>
